--- a/data/hotels_by_city/Houston/Houston_shard_238.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_238.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56010-d106904-Reviews-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Fairfield-Inn-Suites-Houston-Humble.h79622.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,869 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r480034936-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>106904</t>
+  </si>
+  <si>
+    <t>480034936</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Average hotel</t>
+  </si>
+  <si>
+    <t>Hotel is OK.  It is newly renovated, offers free breakfast, a tiny fitness room, and an indoor pool.  Service was OK but the hotel was not prepared for full occupancy and cleaning service took a long time, food and coffee ran out at breakfast, and the fitness room was not clean.  Room was ok, but AC was not very strong so the room was stuffy.  The hotel is also very noisy with constant noise from the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is OK.  It is newly renovated, offers free breakfast, a tiny fitness room, and an indoor pool.  Service was OK but the hotel was not prepared for full occupancy and cleaning service took a long time, food and coffee ran out at breakfast, and the fitness room was not clean.  Room was ok, but AC was not very strong so the room was stuffy.  The hotel is also very noisy with constant noise from the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r471785205-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>471785205</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Disappointed when Ive stayed at many Marriott Hotels.</t>
+  </si>
+  <si>
+    <t>We stayed there for a church conference in October for one night.   We did have a problem with the AC and was told they had just reopened being closed for water damage and maintenance staff was not on site. The room seemed very small and very plain, nothing in the decorating ambience or walking space that made you feel "Ahhh".  Bathroom functional but  not exceptional. We have always been impressed staying at most Marriotts.  There was one lady on duty who was very friendly and helpful.  We were in a room facing north and didn't notice the traffic noise. We are used to a streaming device for movies, news, etc.  so whenever  we are stuck with cable, we know why we love our streaming convenience so much.  Cable navigation is awful but we  couldn't get any of the HBO channels and we were told that IT hadn't had time to work out bugs. Since we were the first  people staying since reopening and we did have isssues, the assistant apologized and returned some of our points to make up for inconveniences.    The next morning, my husband got breakfast and brought me back some food and it was barely palatable; their food lacked taste, color, texture, and flavor, in fact, it was so 'not tasty"  I preferred not to eat. I am reviewing in hopes Marriott will take notice and upgrade, at least, the dining room experience.  We need to get...We stayed there for a church conference in October for one night.   We did have a problem with the AC and was told they had just reopened being closed for water damage and maintenance staff was not on site. The room seemed very small and very plain, nothing in the decorating ambience or walking space that made you feel "Ahhh".  Bathroom functional but  not exceptional. We have always been impressed staying at most Marriotts.  There was one lady on duty who was very friendly and helpful.  We were in a room facing north and didn't notice the traffic noise. We are used to a streaming device for movies, news, etc.  so whenever  we are stuck with cable, we know why we love our streaming convenience so much.  Cable navigation is awful but we  couldn't get any of the HBO channels and we were told that IT hadn't had time to work out bugs. Since we were the first  people staying since reopening and we did have isssues, the assistant apologized and returned some of our points to make up for inconveniences.    The next morning, my husband got breakfast and brought me back some food and it was barely palatable; their food lacked taste, color, texture, and flavor, in fact, it was so 'not tasty"  I preferred not to eat. I am reviewing in hopes Marriott will take notice and upgrade, at least, the dining room experience.  We need to get another room for another church conference and I wanted to check re views before we booked here to see if the breakfast dining had better reviews.  A review as recent as March 17th rated the food 1 star*.  I have to agree with other reviewers.  Marriott, can't you  improve on the breakfast, please.....I love Marriotts in general.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>We stayed there for a church conference in October for one night.   We did have a problem with the AC and was told they had just reopened being closed for water damage and maintenance staff was not on site. The room seemed very small and very plain, nothing in the decorating ambience or walking space that made you feel "Ahhh".  Bathroom functional but  not exceptional. We have always been impressed staying at most Marriotts.  There was one lady on duty who was very friendly and helpful.  We were in a room facing north and didn't notice the traffic noise. We are used to a streaming device for movies, news, etc.  so whenever  we are stuck with cable, we know why we love our streaming convenience so much.  Cable navigation is awful but we  couldn't get any of the HBO channels and we were told that IT hadn't had time to work out bugs. Since we were the first  people staying since reopening and we did have isssues, the assistant apologized and returned some of our points to make up for inconveniences.    The next morning, my husband got breakfast and brought me back some food and it was barely palatable; their food lacked taste, color, texture, and flavor, in fact, it was so 'not tasty"  I preferred not to eat. I am reviewing in hopes Marriott will take notice and upgrade, at least, the dining room experience.  We need to get...We stayed there for a church conference in October for one night.   We did have a problem with the AC and was told they had just reopened being closed for water damage and maintenance staff was not on site. The room seemed very small and very plain, nothing in the decorating ambience or walking space that made you feel "Ahhh".  Bathroom functional but  not exceptional. We have always been impressed staying at most Marriotts.  There was one lady on duty who was very friendly and helpful.  We were in a room facing north and didn't notice the traffic noise. We are used to a streaming device for movies, news, etc.  so whenever  we are stuck with cable, we know why we love our streaming convenience so much.  Cable navigation is awful but we  couldn't get any of the HBO channels and we were told that IT hadn't had time to work out bugs. Since we were the first  people staying since reopening and we did have isssues, the assistant apologized and returned some of our points to make up for inconveniences.    The next morning, my husband got breakfast and brought me back some food and it was barely palatable; their food lacked taste, color, texture, and flavor, in fact, it was so 'not tasty"  I preferred not to eat. I am reviewing in hopes Marriott will take notice and upgrade, at least, the dining room experience.  We need to get another room for another church conference and I wanted to check re views before we booked here to see if the breakfast dining had better reviews.  A review as recent as March 17th rated the food 1 star*.  I have to agree with other reviewers.  Marriott, can't you  improve on the breakfast, please.....I love Marriotts in general.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r470043892-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>470043892</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Not Good- Won't Be Back!</t>
+  </si>
+  <si>
+    <t>We had a one night stay on a Friday Night. The rooms were just okay and that was the best part. The pool was advertised as heated but was freezing cold. They should shut down the gym since very little works. The lights don't work. So, be prepared to exercise in the dark. Both treadmills are broken (see attached photos). They started running large blue hoses down the hall early Saturday morning, which served as great tripping hazards as you left (see photos attached).  Forget about getting anything fixed, we were told maintenance staff was not on site.  We won't be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>We had a one night stay on a Friday Night. The rooms were just okay and that was the best part. The pool was advertised as heated but was freezing cold. They should shut down the gym since very little works. The lights don't work. So, be prepared to exercise in the dark. Both treadmills are broken (see attached photos). They started running large blue hoses down the hall early Saturday morning, which served as great tripping hazards as you left (see photos attached).  Forget about getting anything fixed, we were told maintenance staff was not on site.  We won't be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r433983398-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>433983398</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Great househunting home base</t>
+  </si>
+  <si>
+    <t>Stayed here while househunting, and it is was a very convenient location to Humble, Kingwood, and IAH.  Service was great, the room was nice as well.  The breakfast was typical Fairfield fare, which I wish was better in general, but certainly in line with the Fairfield brand amenities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r417282101-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>417282101</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Nice Staff, Clean, Comfortable, but breakfast not what we are used to with Fairfield</t>
+  </si>
+  <si>
+    <t>Pros: convenient to Fwy, yet no noise. Close to restaurants. Excellent staff: welcoming, helpful. Room very clean, beds comfortable, and enough outlets. Computer in lobby = able to print out boarding passes for upcoming flight. Cons: internet kept dropping in our room. Tried to hand wash lingerie in the bathroom sink, but water kept draining. The breakfast was a disappointment - didn't offer the range and freshness of food we have come to expect from the Fairfield. Overall, the important aspects were met: staff, comfort, cleanliness, convenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Pros: convenient to Fwy, yet no noise. Close to restaurants. Excellent staff: welcoming, helpful. Room very clean, beds comfortable, and enough outlets. Computer in lobby = able to print out boarding passes for upcoming flight. Cons: internet kept dropping in our room. Tried to hand wash lingerie in the bathroom sink, but water kept draining. The breakfast was a disappointment - didn't offer the range and freshness of food we have come to expect from the Fairfield. Overall, the important aspects were met: staff, comfort, cleanliness, convenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r370202029-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>370202029</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Met high expectations</t>
+  </si>
+  <si>
+    <t>Was here on business.  Tucked away the property met my high expectations.  I have come to expect great people at Marriott properties and the Humble location was dead on.  The rooms were clean, quite and comfortable.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r344609311-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>344609311</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Close to IAH, but also close to Interstate 69</t>
+  </si>
+  <si>
+    <t>The Fairfield does not offer shuttle service to / from George Bush Int'l Airport which is OK, since it is only 6 miles to the terminals and 7.5 miles to the rental car facility.Located less than 1 mile from Deerbrook Mall and many chain restaurants, there are no sidewalks to get you there so you'll have to burn some gas getting anywhere.The check-in was very quick and personable, as was check-out and I enjoyed a nice night's sleep during my stay.  The property is located right along Interstate 69 as well as the Eastex Freeway Service Road, so there is no shortage of traffic noise regardless of the time of day.  Also be aware that pulling out into traffic onto the Eastex Freeway Service Road is difficult with the Service Road and on-ramp located right by the hotel entrance.If you don't need a hotel shuttle and are comfortable with traffic noise, check out the Fairfield Inn &amp; Suites in Humble.  I'll probably go back to another favorite, just for the courtesy of the airport shuttle.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2016</t>
+  </si>
+  <si>
+    <t>The Fairfield does not offer shuttle service to / from George Bush Int'l Airport which is OK, since it is only 6 miles to the terminals and 7.5 miles to the rental car facility.Located less than 1 mile from Deerbrook Mall and many chain restaurants, there are no sidewalks to get you there so you'll have to burn some gas getting anywhere.The check-in was very quick and personable, as was check-out and I enjoyed a nice night's sleep during my stay.  The property is located right along Interstate 69 as well as the Eastex Freeway Service Road, so there is no shortage of traffic noise regardless of the time of day.  Also be aware that pulling out into traffic onto the Eastex Freeway Service Road is difficult with the Service Road and on-ramp located right by the hotel entrance.If you don't need a hotel shuttle and are comfortable with traffic noise, check out the Fairfield Inn &amp; Suites in Humble.  I'll probably go back to another favorite, just for the courtesy of the airport shuttle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r338033395-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>338033395</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Best Fairfield Inn We've Experienced</t>
+  </si>
+  <si>
+    <t>the hotel was undergoing carpet cleaning in the public and individual guest rooms.  The courteous staff made sure we were comfortable and not inconvenienced.  The rooms were immaculate and amenities met our needs.  Breakfast exceeded expectations with a large array of hot and cold menu options in a well maintained eating area.  Great value, too!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>the hotel was undergoing carpet cleaning in the public and individual guest rooms.  The courteous staff made sure we were comfortable and not inconvenienced.  The rooms were immaculate and amenities met our needs.  Breakfast exceeded expectations with a large array of hot and cold menu options in a well maintained eating area.  Great value, too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r326882909-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>326882909</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Space center and Rockets game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very amazing warm staff.  Loved how everything was so easy breezy no stress.  Hotel is clean breakfast is basic but good pool is small but clean.  Fitness center nice and big with quality equipment.   Price was right.  I heard though in the morning there was some theft in the immediate parking lot so be careful with your car and trucks.  Definitely as always be careful with your surroundings.   </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r318810844-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>318810844</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Krystal L</t>
+  </si>
+  <si>
+    <t>Worst hotel experience ever! I'm giving this franchise bad reviews on every site that I can find! I've stayed with the Marriott for the past 5 years on any business or leisure trip. Back in July I was at the humble location and had a watch stolen from my room. I was in town for a church camp meet at refuge temple. I reported it immediately to the front desk which declined to call her manager at the time. I called the humble police dep to file a report. I was told my the hotel to fill out a claim form and that insurance would cover my loss. Well it's not October and I just found out from liberty mutual that my claim was just filed with them a week ago after I called the hotel and went off!! These people have repeatedly lied to me about my property. They don't care and the person that stole it still has her job! I will never stay with this company again and I will not recommend them to any of my corporate counterparts. I have already had 2 accounts pulled from them and I am working on getting as many pulled as I can! The fact that I traveled 6 hours to stay at this location and to be treated this way is horrible. I have yet to be compensated for my stolen jewelry!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Worst hotel experience ever! I'm giving this franchise bad reviews on every site that I can find! I've stayed with the Marriott for the past 5 years on any business or leisure trip. Back in July I was at the humble location and had a watch stolen from my room. I was in town for a church camp meet at refuge temple. I reported it immediately to the front desk which declined to call her manager at the time. I called the humble police dep to file a report. I was told my the hotel to fill out a claim form and that insurance would cover my loss. Well it's not October and I just found out from liberty mutual that my claim was just filed with them a week ago after I called the hotel and went off!! These people have repeatedly lied to me about my property. They don't care and the person that stole it still has her job! I will never stay with this company again and I will not recommend them to any of my corporate counterparts. I have already had 2 accounts pulled from them and I am working on getting as many pulled as I can! The fact that I traveled 6 hours to stay at this location and to be treated this way is horrible. I have yet to be compensated for my stolen jewelry!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r318808163-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>318808163</t>
+  </si>
+  <si>
+    <t>Do not stay here!!!</t>
+  </si>
+  <si>
+    <t>This has been the worst experience I have ever had with a hotel. Terrible customer service the managers lie and do not follow up with you. I do not recommend anyone staying at any franchise Marriott's/ TMI Hospitality. We were in town for a church camp meeting. We left to go shopping in Houston and upon arriving back to the hotel my wife noticed that her favorite Michael Kors watch was missing. We contacted the Humble Police to file a theft report so we could place a claim with their insurance and the managers argued us down that no one stole the watch and then did not submit the claim report until about a week ago. We stayed there back in July it is now October and my wife has yet to be compensated for her watch that came up missing at this hotel. Horrible!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This has been the worst experience I have ever had with a hotel. Terrible customer service the managers lie and do not follow up with you. I do not recommend anyone staying at any franchise Marriott's/ TMI Hospitality. We were in town for a church camp meeting. We left to go shopping in Houston and upon arriving back to the hotel my wife noticed that her favorite Michael Kors watch was missing. We contacted the Humble Police to file a theft report so we could place a claim with their insurance and the managers argued us down that no one stole the watch and then did not submit the claim report until about a week ago. We stayed there back in July it is now October and my wife has yet to be compensated for her watch that came up missing at this hotel. Horrible!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r312521908-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>312521908</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Clean and welcoming staff</t>
+  </si>
+  <si>
+    <t>I found this to be on of the better Fairfield Inns where I have stayed in recent years.  The staff was friendly and helpful and the room comfortable.  Hotel has a new and fresh look, so I'm sure it was recently remodeled.  There are no restaurants within walking distance, unless you want to walk a couple of miles.  But, if you have transportation, there are several that are easy to reach.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>I found this to be on of the better Fairfield Inns where I have stayed in recent years.  The staff was friendly and helpful and the room comfortable.  Hotel has a new and fresh look, so I'm sure it was recently remodeled.  There are no restaurants within walking distance, unless you want to walk a couple of miles.  But, if you have transportation, there are several that are easy to reach.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r302221401-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>302221401</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>Newly Remolded, Great Deal</t>
+  </si>
+  <si>
+    <t>What a present surprise this week in Humble, TX.  The photos online made me think it would be a decent but dated Fairfield, not even close.  Recently Remodeled and they hit out of of the park.  I definitely recommend for the price and quality.  I hope other Fairfields follow this remodel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded September 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2015</t>
+  </si>
+  <si>
+    <t>What a present surprise this week in Humble, TX.  The photos online made me think it would be a decent but dated Fairfield, not even close.  Recently Remodeled and they hit out of of the park.  I definitely recommend for the price and quality.  I hope other Fairfields follow this remodel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r292031676-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>292031676</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Newly remodeled.  Welcoming staff.</t>
+  </si>
+  <si>
+    <t>We were warmly welcomed on check-in by the desk clerk and, the next day, by other staff.  Because it was newly remodeled, it felt like a new property.  Nice work out facility with an elliptical and two treadmills and a full set of weights.  Close to IAH, but no shuttle service.  Also close to a mall.Otherwise standard Fairfield Inn fare.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2015</t>
+  </si>
+  <si>
+    <t>We were warmly welcomed on check-in by the desk clerk and, the next day, by other staff.  Because it was newly remodeled, it felt like a new property.  Nice work out facility with an elliptical and two treadmills and a full set of weights.  Close to IAH, but no shuttle service.  Also close to a mall.Otherwise standard Fairfield Inn fare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r290714872-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>290714872</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>I've stayed at other Fairfield's and have always had a good experience.  This one did not offer the same.  We booked this hotel because we wanted the convenience of having an indoor hot tub which it showed in the pictures to have.  When we walked into the pool room we saw a pool but no hot tub.  The lady behind the front desk informed us that they had gotten rid of the hot tub when they did work on the hotel recently and haven't posted new pictures.  Also, with all the recent work they did you would think they would put new air conditioners in the rooms because both rooms I rented had noisy air conditioners that would wake you up all night long.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed at other Fairfield's and have always had a good experience.  This one did not offer the same.  We booked this hotel because we wanted the convenience of having an indoor hot tub which it showed in the pictures to have.  When we walked into the pool room we saw a pool but no hot tub.  The lady behind the front desk informed us that they had gotten rid of the hot tub when they did work on the hotel recently and haven't posted new pictures.  Also, with all the recent work they did you would think they would put new air conditioners in the rooms because both rooms I rented had noisy air conditioners that would wake you up all night long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r240907414-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>240907414</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Great option in the area</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here at Fairfield Inn. All the staff were very hospitable and accommodating. There is breakfast in the morning and it is above average. Waffles, hot items like eggs, hash browns, sausage, bacon, yogurt, tea, coffee, fresh fruit, bagels, bread, apple juice, orange juice, and much more. The pool is clean and warm. Very good for young children. I would suggest calling ahead and asking for a room away from the highway. It was very loud. My room was updated and a suite. So it included a microwave and mini fridge. There are always snacks out. If you get hungry there is a TGIF, Red lobster, Pappas seafood, Hooters, and many more across the street. The mall is also with in walking distance. about a 15 min walk.  Most importantly the hotel was clean. While i was there they were cleaning the carpet in all the rooms. I would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded December 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2014</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here at Fairfield Inn. All the staff were very hospitable and accommodating. There is breakfast in the morning and it is above average. Waffles, hot items like eggs, hash browns, sausage, bacon, yogurt, tea, coffee, fresh fruit, bagels, bread, apple juice, orange juice, and much more. The pool is clean and warm. Very good for young children. I would suggest calling ahead and asking for a room away from the highway. It was very loud. My room was updated and a suite. So it included a microwave and mini fridge. There are always snacks out. If you get hungry there is a TGIF, Red lobster, Pappas seafood, Hooters, and many more across the street. The mall is also with in walking distance. about a 15 min walk.  Most importantly the hotel was clean. While i was there they were cleaning the carpet in all the rooms. I would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r235860695-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>235860695</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>Very convenient , very clean, great service</t>
+  </si>
+  <si>
+    <t>This is a small property, not your elegant Marriott property but a very nice well kept property with great people at the front desk and around the hotel. Very impressed with how friendly and professional everyone has been during my stay.The breakfast area is very nice, small but good enough for everyone at the hotel, coffee, hot food and cereal. What you need for the morning.The rooms are comfortable. Very good beds, flat tv, and very clean bathrooms and room.I could tell that my room was very, very clean when I came back to the room at the end of the day.Very convenient to go in and out of the expressway.The shopping center is around the corner and they have plenty of great places to eat around the hotel. You need to drive, but I am talking within minutes of driving.Congratulations to the management team for your hospitality and service!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded November 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2014</t>
+  </si>
+  <si>
+    <t>This is a small property, not your elegant Marriott property but a very nice well kept property with great people at the front desk and around the hotel. Very impressed with how friendly and professional everyone has been during my stay.The breakfast area is very nice, small but good enough for everyone at the hotel, coffee, hot food and cereal. What you need for the morning.The rooms are comfortable. Very good beds, flat tv, and very clean bathrooms and room.I could tell that my room was very, very clean when I came back to the room at the end of the day.Very convenient to go in and out of the expressway.The shopping center is around the corner and they have plenty of great places to eat around the hotel. You need to drive, but I am talking within minutes of driving.Congratulations to the management team for your hospitality and service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r233943534-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>233943534</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Mostly Pluses</t>
+  </si>
+  <si>
+    <t>This Fairfield Inn location was centrally located for all of my activities in the Houston area the weekend of September 26-29, 2014.  That is why I preferred to stay somewhere close to Humble.  Due to its proximity to Hwy 59 I was prepared for road noise but that was quite minimal and never a problem.  Thanks to another Trip Advisor contributor I was aware that a quick right turn was required to get into the parking lot.  If you miss it just go to the first side street, make three right turns, and you will find an entrance off Fieldtree Dr. 
+Parking was never a problem.  I parked on the east side of the building and used the side entrance most of the time.  Check-in was quick and I was accommodated when I wanted a room on the top floor.  The room was comfortable, fairly roomy and very clean.  Even the bathroom was roomier than some comparable places I've stayed.
+The room temperature was comfortable when I arrived and I turned off the A/C at night to good affect.  While I was gone during the day I set the A/C to Low Cool and about 70 degrees.  The first morning I requested no housekeeping as it wasn't needed and I was going to be in and out numerous times during the day.  However the next day I did request housekeeping.  I was very disappointed when I returned to find the...This Fairfield Inn location was centrally located for all of my activities in the Houston area the weekend of September 26-29, 2014.  That is why I preferred to stay somewhere close to Humble.  Due to its proximity to Hwy 59 I was prepared for road noise but that was quite minimal and never a problem.  Thanks to another Trip Advisor contributor I was aware that a quick right turn was required to get into the parking lot.  If you miss it just go to the first side street, make three right turns, and you will find an entrance off Fieldtree Dr. Parking was never a problem.  I parked on the east side of the building and used the side entrance most of the time.  Check-in was quick and I was accommodated when I wanted a room on the top floor.  The room was comfortable, fairly roomy and very clean.  Even the bathroom was roomier than some comparable places I've stayed.The room temperature was comfortable when I arrived and I turned off the A/C at night to good affect.  While I was gone during the day I set the A/C to Low Cool and about 70 degrees.  The first morning I requested no housekeeping as it wasn't needed and I was going to be in and out numerous times during the day.  However the next day I did request housekeeping.  I was very disappointed when I returned to find the A/C was on High Cool and all the way to the coldest setting.  The unit should not have touched in my absence.  It was set the way I wanted it and I ended up turning on the heat to get rid of the downright cold in the room.The only other disappointment was the meager breakfast buffet.  Especially the lackluster assortment of bagels and sweet rolls.  They were like some bargain basement rejects.  It made this guest feel like a second-class citizen, as if the hotel really didn't care how their food tasted.  Also, I like 1/2 &amp; 1/2 for my coffee, not the dairy substitute provided.  I used the small whole milk from the cooler but 1/2 &amp; 1/2 in a carafe would have been nice.  The one waffle maker seemed to under cook the waffles.  Everyone had trouble getting them out of the maker.  I just let it cook another minute and it was fine.  On Monday morning the staff tending the breakfast area spent the whole time I was there speaking with someone, not making sure the coffee was full.  I had warm (not hot) coffee from the bottom of the dispenser.  And I had the bottom of the waffle batter which I had to work hard to dispense.Should I ever be in the Humble area again I would definitely consider staying at this Fairfield Inn again.  Mostly it was a good stay.  I had three good night's sleep which is the major consideration when I am away from home.  There were no undue noises to contend with, a real plus!  Most of these comments were also on the Fairfield Inn survey I took after my return home.  I asked them to please consider getting their bagels/sweet rolls from a bakery instead of (I am presuming) in bulk. I think they should delight their guests not offend them with inferior products.The pluses far out weigh the minuses.  So if you are considering this Fairfield Inn don't let this review dissuade you.  I mostly wanted the management to be aware that 1) housekeeping should not alter the temperature in the room of a guest staying more than one night; and 2) more attention should be paid to the conditions in the breakfast area.  I have stayed at many Fairfields, Hamptons, Drury Inns, among others. This was a very good stay all things considered.  Improving, even marginally, the offerings at breakfast would have made this a 5 star review.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded October 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2014</t>
+  </si>
+  <si>
+    <t>This Fairfield Inn location was centrally located for all of my activities in the Houston area the weekend of September 26-29, 2014.  That is why I preferred to stay somewhere close to Humble.  Due to its proximity to Hwy 59 I was prepared for road noise but that was quite minimal and never a problem.  Thanks to another Trip Advisor contributor I was aware that a quick right turn was required to get into the parking lot.  If you miss it just go to the first side street, make three right turns, and you will find an entrance off Fieldtree Dr. 
+Parking was never a problem.  I parked on the east side of the building and used the side entrance most of the time.  Check-in was quick and I was accommodated when I wanted a room on the top floor.  The room was comfortable, fairly roomy and very clean.  Even the bathroom was roomier than some comparable places I've stayed.
+The room temperature was comfortable when I arrived and I turned off the A/C at night to good affect.  While I was gone during the day I set the A/C to Low Cool and about 70 degrees.  The first morning I requested no housekeeping as it wasn't needed and I was going to be in and out numerous times during the day.  However the next day I did request housekeeping.  I was very disappointed when I returned to find the...This Fairfield Inn location was centrally located for all of my activities in the Houston area the weekend of September 26-29, 2014.  That is why I preferred to stay somewhere close to Humble.  Due to its proximity to Hwy 59 I was prepared for road noise but that was quite minimal and never a problem.  Thanks to another Trip Advisor contributor I was aware that a quick right turn was required to get into the parking lot.  If you miss it just go to the first side street, make three right turns, and you will find an entrance off Fieldtree Dr. Parking was never a problem.  I parked on the east side of the building and used the side entrance most of the time.  Check-in was quick and I was accommodated when I wanted a room on the top floor.  The room was comfortable, fairly roomy and very clean.  Even the bathroom was roomier than some comparable places I've stayed.The room temperature was comfortable when I arrived and I turned off the A/C at night to good affect.  While I was gone during the day I set the A/C to Low Cool and about 70 degrees.  The first morning I requested no housekeeping as it wasn't needed and I was going to be in and out numerous times during the day.  However the next day I did request housekeeping.  I was very disappointed when I returned to find the A/C was on High Cool and all the way to the coldest setting.  The unit should not have touched in my absence.  It was set the way I wanted it and I ended up turning on the heat to get rid of the downright cold in the room.The only other disappointment was the meager breakfast buffet.  Especially the lackluster assortment of bagels and sweet rolls.  They were like some bargain basement rejects.  It made this guest feel like a second-class citizen, as if the hotel really didn't care how their food tasted.  Also, I like 1/2 &amp; 1/2 for my coffee, not the dairy substitute provided.  I used the small whole milk from the cooler but 1/2 &amp; 1/2 in a carafe would have been nice.  The one waffle maker seemed to under cook the waffles.  Everyone had trouble getting them out of the maker.  I just let it cook another minute and it was fine.  On Monday morning the staff tending the breakfast area spent the whole time I was there speaking with someone, not making sure the coffee was full.  I had warm (not hot) coffee from the bottom of the dispenser.  And I had the bottom of the waffle batter which I had to work hard to dispense.Should I ever be in the Humble area again I would definitely consider staying at this Fairfield Inn again.  Mostly it was a good stay.  I had three good night's sleep which is the major consideration when I am away from home.  There were no undue noises to contend with, a real plus!  Most of these comments were also on the Fairfield Inn survey I took after my return home.  I asked them to please consider getting their bagels/sweet rolls from a bakery instead of (I am presuming) in bulk. I think they should delight their guests not offend them with inferior products.The pluses far out weigh the minuses.  So if you are considering this Fairfield Inn don't let this review dissuade you.  I mostly wanted the management to be aware that 1) housekeeping should not alter the temperature in the room of a guest staying more than one night; and 2) more attention should be paid to the conditions in the breakfast area.  I have stayed at many Fairfields, Hamptons, Drury Inns, among others. This was a very good stay all things considered.  Improving, even marginally, the offerings at breakfast would have made this a 5 star review.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r211822539-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>211822539</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>The room was very clean.  The bed was VERY comfortable (I wish I had this bed at home), pillows were comfortable too. Strong, hot shower.  Quiet hallway, great hot breakfast with sausage and scrambled eggs (not the pre-packaged eggs like in some motels). I highly recommend this motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded July 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2014</t>
+  </si>
+  <si>
+    <t>The room was very clean.  The bed was VERY comfortable (I wish I had this bed at home), pillows were comfortable too. Strong, hot shower.  Quiet hallway, great hot breakfast with sausage and scrambled eggs (not the pre-packaged eggs like in some motels). I highly recommend this motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r208985372-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>208985372</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>Average hotel (clean) - needs a dehumidifier - no fitness center</t>
+  </si>
+  <si>
+    <t>Currently checked in here.  Stayed overnight and have to catch a flight today.  Used points to stay here, so I can't comment on the price / value for price.Standard Fairfield, perhaps a little dated, but not too bad.  Flat screens, beds are comfortable enough, place is clean. Nothing remarkable about this place and based on this stay, I'll be staying at a different Marriott brand the next time I'm in the area.  2 reasons:  1) It is INCREDIBLY humid in the room (And I'm from Louisiana. I'm used to humid).  It's almost to the point of the carpet and bed covers feeling damp.  That's definitely how it is when you first walk in.  I figured the AC would take care of this overnight. Negative.  I don't know if the unit froze or what, but I woke up about 5:30 and it was warm &amp; muggy in the room, with the temp on the AC set on 65.  I've stayed in a similar Fairfield in Lake Charles, LA.  They had a dehumidifier in each room, and that took care of the moisture problem.  This place could use the same.  Also, no fitness center on site.  They offer free use of a local Anytime Fitness, but that's inconvenient.  Indoor pool area is nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded June 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2014</t>
+  </si>
+  <si>
+    <t>Currently checked in here.  Stayed overnight and have to catch a flight today.  Used points to stay here, so I can't comment on the price / value for price.Standard Fairfield, perhaps a little dated, but not too bad.  Flat screens, beds are comfortable enough, place is clean. Nothing remarkable about this place and based on this stay, I'll be staying at a different Marriott brand the next time I'm in the area.  2 reasons:  1) It is INCREDIBLY humid in the room (And I'm from Louisiana. I'm used to humid).  It's almost to the point of the carpet and bed covers feeling damp.  That's definitely how it is when you first walk in.  I figured the AC would take care of this overnight. Negative.  I don't know if the unit froze or what, but I woke up about 5:30 and it was warm &amp; muggy in the room, with the temp on the AC set on 65.  I've stayed in a similar Fairfield in Lake Charles, LA.  They had a dehumidifier in each room, and that took care of the moisture problem.  This place could use the same.  Also, no fitness center on site.  They offer free use of a local Anytime Fitness, but that's inconvenient.  Indoor pool area is nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r195195804-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>195195804</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Fantastic hotel</t>
+  </si>
+  <si>
+    <t>We stayed her for one night before a taekwondo tournament. We got a good room rate, it's easy to find and the lady on the desk was really friendly and helpful (wish I'd got her name so she could get all the credit she deserves) and check in was a breeze. The boys loved the indoor pool and hot tub which is open till 11pm (12 for adults). Room was clean n fresh smelling, very comfy beds and everything you need is there would be nice to have a little fridge to keep some water in but other than that it's a great room. Breakfast was good and always topped up and a good variety of items. Will definitely stay there again next time we're up that way and it's our 2nd time in this hotel chain and will be using these from now on as our go-to hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded March 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2014</t>
+  </si>
+  <si>
+    <t>We stayed her for one night before a taekwondo tournament. We got a good room rate, it's easy to find and the lady on the desk was really friendly and helpful (wish I'd got her name so she could get all the credit she deserves) and check in was a breeze. The boys loved the indoor pool and hot tub which is open till 11pm (12 for adults). Room was clean n fresh smelling, very comfy beds and everything you need is there would be nice to have a little fridge to keep some water in but other than that it's a great room. Breakfast was good and always topped up and a good variety of items. Will definitely stay there again next time we're up that way and it's our 2nd time in this hotel chain and will be using these from now on as our go-to hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r173430635-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>173430635</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>Disappointed.</t>
+  </si>
+  <si>
+    <t>The difference between the Spring Hill Suites I stayed in the night before for 150 and this for 130 is shocking.  Its like two different planets. No automatic doors to facilitate getting luggage in, lobby is tiny and dark, parking sucks, and rooms are not that great. This is the loudest hotel I've ever been in.  Doors slamming, you can hear every move the people above you make, and cars racing up and down the highway.  As a gold member, hell, a customer,I expected to be greeted politely at check in. I handed my credit card to the two ladies at the desk and was unceremoniously handed a key.  Nothing else, no breakfast times, no elevator direction, That's it, they didn't even speak to me because they were to busy yapping at each  other.  If a restful nights sleep at a reasonable price is what you are after, spend the extra 20 and find a Spring Hill or Holiday Inn Express.  I understand Marriott having different classes of hotels, but this is not a 20 dollar difference, this should be about a 100 dollar a night difference.  Very disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded August 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2013</t>
+  </si>
+  <si>
+    <t>The difference between the Spring Hill Suites I stayed in the night before for 150 and this for 130 is shocking.  Its like two different planets. No automatic doors to facilitate getting luggage in, lobby is tiny and dark, parking sucks, and rooms are not that great. This is the loudest hotel I've ever been in.  Doors slamming, you can hear every move the people above you make, and cars racing up and down the highway.  As a gold member, hell, a customer,I expected to be greeted politely at check in. I handed my credit card to the two ladies at the desk and was unceremoniously handed a key.  Nothing else, no breakfast times, no elevator direction, That's it, they didn't even speak to me because they were to busy yapping at each  other.  If a restful nights sleep at a reasonable price is what you are after, spend the extra 20 and find a Spring Hill or Holiday Inn Express.  I understand Marriott having different classes of hotels, but this is not a 20 dollar difference, this should be about a 100 dollar a night difference.  Very disappointing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r166309204-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>166309204</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>Decent option</t>
+  </si>
+  <si>
+    <t>I stayed here for business in May 2013 with some colleagues. The location is good, but you have to pay attention on how to get here from the freeway; because if you miss the turn, you have a long drive back down the access road to turn around to try again. The check in was quick and friendly. The lobby décor is a bit dated but it's still clean. There is one computer tucked into the corner of the lobby area as the business center. You may have a wait to print a boarding pass if there is someone surfing. 
+The room I had was comfortable, with two double beds and the standard desk, chair, TV combo. The bathroom seemed a bit tight; but I also had a ton of toiletries with me since I drove into town rather than flying. The towels were nice and soft. They must have been new. The beds were good for getting a night's sleep and the AC worked well to remove most of the humidity from the air. The staff seemed pleasant when I interacted with them. The breakfast in the morning was typical cereals, breads and fruit. There was a few hot items too that changed daily. The breakfast area was kept running by a very friendly woman who spent the entire time in action, cleaning, filling food items, straightening. 
+The area around the hotel has some restaurants and drugstores. The highway...I stayed here for business in May 2013 with some colleagues. The location is good, but you have to pay attention on how to get here from the freeway; because if you miss the turn, you have a long drive back down the access road to turn around to try again. The check in was quick and friendly. The lobby décor is a bit dated but it's still clean. There is one computer tucked into the corner of the lobby area as the business center. You may have a wait to print a boarding pass if there is someone surfing. The room I had was comfortable, with two double beds and the standard desk, chair, TV combo. The bathroom seemed a bit tight; but I also had a ton of toiletries with me since I drove into town rather than flying. The towels were nice and soft. They must have been new. The beds were good for getting a night's sleep and the AC worked well to remove most of the humidity from the air. The staff seemed pleasant when I interacted with them. The breakfast in the morning was typical cereals, breads and fruit. There was a few hot items too that changed daily. The breakfast area was kept running by a very friendly woman who spent the entire time in action, cleaning, filling food items, straightening. The area around the hotel has some restaurants and drugstores. The highway probably could be a little noisy but I was on the opposite side away from the road so I actually was a little surprised at how quiet it was for saying there is an interstate and busy access road right there. I ordinarily don't stay in Humble when I go to the Houston area for business, but I would not be opposed to staying at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>HumbleFairfield_GM, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded July 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for business in May 2013 with some colleagues. The location is good, but you have to pay attention on how to get here from the freeway; because if you miss the turn, you have a long drive back down the access road to turn around to try again. The check in was quick and friendly. The lobby décor is a bit dated but it's still clean. There is one computer tucked into the corner of the lobby area as the business center. You may have a wait to print a boarding pass if there is someone surfing. 
+The room I had was comfortable, with two double beds and the standard desk, chair, TV combo. The bathroom seemed a bit tight; but I also had a ton of toiletries with me since I drove into town rather than flying. The towels were nice and soft. They must have been new. The beds were good for getting a night's sleep and the AC worked well to remove most of the humidity from the air. The staff seemed pleasant when I interacted with them. The breakfast in the morning was typical cereals, breads and fruit. There was a few hot items too that changed daily. The breakfast area was kept running by a very friendly woman who spent the entire time in action, cleaning, filling food items, straightening. 
+The area around the hotel has some restaurants and drugstores. The highway...I stayed here for business in May 2013 with some colleagues. The location is good, but you have to pay attention on how to get here from the freeway; because if you miss the turn, you have a long drive back down the access road to turn around to try again. The check in was quick and friendly. The lobby décor is a bit dated but it's still clean. There is one computer tucked into the corner of the lobby area as the business center. You may have a wait to print a boarding pass if there is someone surfing. The room I had was comfortable, with two double beds and the standard desk, chair, TV combo. The bathroom seemed a bit tight; but I also had a ton of toiletries with me since I drove into town rather than flying. The towels were nice and soft. They must have been new. The beds were good for getting a night's sleep and the AC worked well to remove most of the humidity from the air. The staff seemed pleasant when I interacted with them. The breakfast in the morning was typical cereals, breads and fruit. There was a few hot items too that changed daily. The breakfast area was kept running by a very friendly woman who spent the entire time in action, cleaning, filling food items, straightening. The area around the hotel has some restaurants and drugstores. The highway probably could be a little noisy but I was on the opposite side away from the road so I actually was a little surprised at how quiet it was for saying there is an interstate and busy access road right there. I ordinarily don't stay in Humble when I go to the Houston area for business, but I would not be opposed to staying at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r165470502-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>165470502</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>Its ok, no frills</t>
+  </si>
+  <si>
+    <t>You do hear the noise from the nearby freeway but its not overly noisy.Comfy enough beds, you need to request a fridge though.  Bathroom pretty standard.  Choice f channels on the tv is poor.Breakfast is average, you do have a choice of hot or cold, either bacon and scrambled eggs or some kind of sausage and scrambled eggs.  I normally had toast and cereal, so i guess its not all bad.There is a pool, never seen anyone in it, didn't see changing rooms either which means walking about dripping wet.You are right next to Deerbrook Mall and across the freeway from some good restaurants though.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>HumbleFairfield_GM, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded July 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2013</t>
+  </si>
+  <si>
+    <t>You do hear the noise from the nearby freeway but its not overly noisy.Comfy enough beds, you need to request a fridge though.  Bathroom pretty standard.  Choice f channels on the tv is poor.Breakfast is average, you do have a choice of hot or cold, either bacon and scrambled eggs or some kind of sausage and scrambled eggs.  I normally had toast and cereal, so i guess its not all bad.There is a pool, never seen anyone in it, didn't see changing rooms either which means walking about dripping wet.You are right next to Deerbrook Mall and across the freeway from some good restaurants though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r159480161-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>159480161</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>Not a bad stay</t>
+  </si>
+  <si>
+    <t>I stayed overnight with family. Room was clean and comfy. We used the indoor pool and spa, which was nice.  The pool is heavily chlorinated, the levels could be adjusted some.  Also a little on the cool side, but in summer, I can bet that would be nice.  The downside of this hotel is there is no workout area.  I could also not find an ice machine, they probably have one, but I did not see one and it was not marked in their customer book in the room. It is located just north of 1960, near the mall and close to restaurants.  I would consider staying there again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>HumbleFairfield_GM, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded May 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2013</t>
+  </si>
+  <si>
+    <t>I stayed overnight with family. Room was clean and comfy. We used the indoor pool and spa, which was nice.  The pool is heavily chlorinated, the levels could be adjusted some.  Also a little on the cool side, but in summer, I can bet that would be nice.  The downside of this hotel is there is no workout area.  I could also not find an ice machine, they probably have one, but I did not see one and it was not marked in their customer book in the room. It is located just north of 1960, near the mall and close to restaurants.  I would consider staying there again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r159303909-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>159303909</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>Quick and comfy stay</t>
+  </si>
+  <si>
+    <t>We were only able to get a quick snooze in, before we had to leave for the airport.  The hotel was very clean, comfy, quiet and friendly.  It was conveniently close to the airport but not so close to hear the airplanes flying by.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were only able to get a quick snooze in, before we had to leave for the airport.  The hotel was very clean, comfy, quiet and friendly.  It was conveniently close to the airport but not so close to hear the airplanes flying by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r158017124-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>158017124</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Great place to unwind</t>
+  </si>
+  <si>
+    <t>We arrived at noon asked to check in early. The staff was happy to help. We got into our room and it was very clean. The bed was soft, the bathroom was clean and lots of clean towels. There was a love seat made into a bed, the desk and chair were great for work. The pool was very clean and heated. There was LOTS of clean towels on every chair plus extra on a shelf. My son had hit his head on the handicap lift for the pool. I didn't want him to bleed in the pool so we went to the room to clean him up. I asked the front desk for something to treat it and the did all they can to help. The breakfast was amazing, my son loved the bacon. He stuffed his face with cereal and bacon. The food was hot fresh and coffee was changed regularly. Everyone was helpful and always smiled.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived at noon asked to check in early. The staff was happy to help. We got into our room and it was very clean. The bed was soft, the bathroom was clean and lots of clean towels. There was a love seat made into a bed, the desk and chair were great for work. The pool was very clean and heated. There was LOTS of clean towels on every chair plus extra on a shelf. My son had hit his head on the handicap lift for the pool. I didn't want him to bleed in the pool so we went to the room to clean him up. I asked the front desk for something to treat it and the did all they can to help. The breakfast was amazing, my son loved the bacon. He stuffed his face with cereal and bacon. The food was hot fresh and coffee was changed regularly. Everyone was helpful and always smiled.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r151533499-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>151533499</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
+    <t>Two great reasons to stay: employees and locale.</t>
+  </si>
+  <si>
+    <t>I've stayed at this location on several occasions and will continue to make this my number one choice in the Humble location.  The front desk employee was (and always) very friendly and helpful.  She was very polite and went out of her way to make my daughter and I feel welcome.  The hotel room itself was clean and tidy.  Every room I've stayed in at this hotel had a mini-fridge and a desk perfect for crafting and jigsaw puzzles.  The bed was comfortable, and we didn't hear a lot of commotion from other guests.  I did mention that the locale is great.  It's really a gift and a curse to the area.  There is literally everything near this hotel:  a mall, movie theater, grocery stores, all the popular retail stores, an incredible selection of restaurants and fast-food.  The list goes on and on.  The bad news about it is that the traffic around this area close to the hotel is so very congested.  Again, you have to take the bad with the good of being close to so many options.  Despite the traffic/hassle it doesn't stop me from wanting to go back to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>HumbleFairfield_GM, General Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded March 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed at this location on several occasions and will continue to make this my number one choice in the Humble location.  The front desk employee was (and always) very friendly and helpful.  She was very polite and went out of her way to make my daughter and I feel welcome.  The hotel room itself was clean and tidy.  Every room I've stayed in at this hotel had a mini-fridge and a desk perfect for crafting and jigsaw puzzles.  The bed was comfortable, and we didn't hear a lot of commotion from other guests.  I did mention that the locale is great.  It's really a gift and a curse to the area.  There is literally everything near this hotel:  a mall, movie theater, grocery stores, all the popular retail stores, an incredible selection of restaurants and fast-food.  The list goes on and on.  The bad news about it is that the traffic around this area close to the hotel is so very congested.  Again, you have to take the bad with the good of being close to so many options.  Despite the traffic/hassle it doesn't stop me from wanting to go back to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r151249878-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>151249878</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>Great Staff Good Location</t>
+  </si>
+  <si>
+    <t>Stayed here for one night and the staff was very friendly. The area around the hotel has a mall down the street and plenty of food options around. The hotel had a indoor pool and a pretty good selection at breakfast considering it was a better variety than the extended stay places I stayed at earlier in the week. Overall I would stay here if in the area, great staff, nice room and good breakfast!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for one night and the staff was very friendly. The area around the hotel has a mall down the street and plenty of food options around. The hotel had a indoor pool and a pretty good selection at breakfast considering it was a better variety than the extended stay places I stayed at earlier in the week. Overall I would stay here if in the area, great staff, nice room and good breakfast!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r144688944-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>144688944</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Great for 1 night.....</t>
+  </si>
+  <si>
+    <t>We stayed here one night, just a quick getaway.  This is a remodeled hotel, not new.  It was clean and updated.  We mistakenly thought that there were refrigerators and microwaves in the rooms, there were not.  We enjoyed the indoor pool and the breakfast was plentiful and tasty.  The front desk clerk was very friendly and made us feel welcome.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>HumbleFairfield_GM, General Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded November 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2012</t>
+  </si>
+  <si>
+    <t>We stayed here one night, just a quick getaway.  This is a remodeled hotel, not new.  It was clean and updated.  We mistakenly thought that there were refrigerators and microwaves in the rooms, there were not.  We enjoyed the indoor pool and the breakfast was plentiful and tasty.  The front desk clerk was very friendly and made us feel welcome.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r119220585-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>119220585</t>
+  </si>
+  <si>
+    <t>10/12/2011</t>
+  </si>
+  <si>
+    <t>Fairfield Inn</t>
+  </si>
+  <si>
+    <t>Not up to Marriott standards. Would not stay there again! Room smelled moldy. A/C not working well. Did not feel safe.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r116002427-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>116002427</t>
+  </si>
+  <si>
+    <t>07/29/2011</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>We stayed here for a few days, coming to town for a funeral.Staff was great, rooms clean, and pool area also clean.It's not a full service hotel, but it's just fine for a few days.Breakfast was a great surprise...many choices compared to other places I have stayed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r78774976-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>78774976</t>
+  </si>
+  <si>
+    <t>09/08/2010</t>
+  </si>
+  <si>
+    <t>Pleasant Travel Surprise</t>
+  </si>
+  <si>
+    <t>Outstanding staff and hidden amenities make this hotel a hidden gem.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r23541763-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>23541763</t>
+  </si>
+  <si>
+    <t>01/13/2009</t>
+  </si>
+  <si>
+    <t>Great central location</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on three seperate occasions when we were looking to purchase a home in the area. The staff was always friendly and helpful. It is right next to the Deerbrook Mall as well as a Super Target. The only downfall is that it is right on the frontage road of Highway 59 but you cannot hear anything inside the rooms. The pool is nice and the breakfast is typical of what is expected of Fairfield Inn.</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r13889062-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>13889062</t>
+  </si>
+  <si>
+    <t>02/27/2008</t>
+  </si>
+  <si>
+    <t>Very good!</t>
+  </si>
+  <si>
+    <t>Room, bath and pool were very clean and well maintained. Comfortable beds. Quiet when window is closed. Breakfast room well equipped and clean. Large continental breakfast. Friendly staff. 10 minutes foot walk to Deerbrook Mall. Sorry, no airport shuttle. Taxi to Bush Airport is 20 - 25 USD.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r10015050-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>10015050</t>
+  </si>
+  <si>
+    <t>09/28/2007</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Quiet. Comfortable. Clean. Just how I like a motel to be. Location is also very good. Friendly staff gives you excellent service. Clean, heated indoor pool was relaxing and the eating area         ( continental ), was also clean and equipped. I always stay here when I'm in Texas.</t>
+  </si>
+  <si>
+    <t>January 2003</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1404,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1436,2463 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>218</v>
+      </c>
+      <c r="X22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" t="s">
+        <v>96</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>236</v>
+      </c>
+      <c r="X24" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" t="s">
+        <v>242</v>
+      </c>
+      <c r="L25" t="s">
+        <v>243</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>244</v>
+      </c>
+      <c r="O25" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>245</v>
+      </c>
+      <c r="X25" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" t="s">
+        <v>251</v>
+      </c>
+      <c r="L26" t="s">
+        <v>252</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>253</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>254</v>
+      </c>
+      <c r="X26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>253</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>254</v>
+      </c>
+      <c r="X27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>253</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>254</v>
+      </c>
+      <c r="X28" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J29" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s">
+        <v>273</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>274</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>275</v>
+      </c>
+      <c r="X29" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" t="s">
+        <v>280</v>
+      </c>
+      <c r="K30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O30" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>275</v>
+      </c>
+      <c r="X30" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" t="s">
+        <v>289</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" t="s">
+        <v>291</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>292</v>
+      </c>
+      <c r="X31" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>300</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>301</v>
+      </c>
+      <c r="J33" t="s">
+        <v>302</v>
+      </c>
+      <c r="K33" t="s">
+        <v>303</v>
+      </c>
+      <c r="L33" t="s">
+        <v>304</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>306</v>
+      </c>
+      <c r="J34" t="s">
+        <v>307</v>
+      </c>
+      <c r="K34" t="s">
+        <v>308</v>
+      </c>
+      <c r="L34" t="s">
+        <v>309</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>310</v>
+      </c>
+      <c r="O34" t="s">
+        <v>96</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>312</v>
+      </c>
+      <c r="J35" t="s">
+        <v>313</v>
+      </c>
+      <c r="K35" t="s">
+        <v>314</v>
+      </c>
+      <c r="L35" t="s">
+        <v>315</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>316</v>
+      </c>
+      <c r="O35" t="s">
+        <v>96</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>317</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>318</v>
+      </c>
+      <c r="J36" t="s">
+        <v>319</v>
+      </c>
+      <c r="K36" t="s">
+        <v>320</v>
+      </c>
+      <c r="L36" t="s">
+        <v>321</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>322</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>324</v>
+      </c>
+      <c r="J37" t="s">
+        <v>325</v>
+      </c>
+      <c r="K37" t="s">
+        <v>326</v>
+      </c>
+      <c r="L37" t="s">
+        <v>327</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>328</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_238.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_238.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,105 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r605458271-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>106904</t>
+  </si>
+  <si>
+    <t>605458271</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Very unfriendly front desk</t>
+  </si>
+  <si>
+    <t>The lady that was at the front desk was very rude while checking in. She continued to raise her voice and say she couldn’t help us and didn’t have our reservations. While we tried to figure out what was going on, she said she didn’t speak Spanish even though we were speaking English. After 45 minutes, she finally gave us the keys. Will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Brendan M, General Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>The lady that was at the front desk was very rude while checking in. She continued to raise her voice and say she couldn’t help us and didn’t have our reservations. While we tried to figure out what was going on, she said she didn’t speak Spanish even though we were speaking English. After 45 minutes, she finally gave us the keys. Will never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r600293498-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>600293498</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>Great visit!</t>
+  </si>
+  <si>
+    <t>We checked in for one night only. After being here about an hour, we added another night! Very convenient to Houston, clean, safe feeling and superb staff. Glad we found it on TripAdvisor! You will be glad you stopped here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Brendan M, General Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We checked in for one night only. After being here about an hour, we added another night! Very convenient to Houston, clean, safe feeling and superb staff. Glad we found it on TripAdvisor! You will be glad you stopped here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r481462052-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>481462052</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Two night stay with family / children</t>
+  </si>
+  <si>
+    <t>We picked this hotel for the indoor pool which was crowded most of the time because we were there during spring break, however, the kids loved it. (which was most important to us).  Hotel is close to the freeway, lots of eating places and shopping. The service at the front desk was very friendly and fast. Rooms were comfy and clean.  Free breakfast was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>We picked this hotel for the indoor pool which was crowded most of the time because we were there during spring break, however, the kids loved it. (which was most important to us).  Hotel is close to the freeway, lots of eating places and shopping. The service at the front desk was very friendly and fast. Rooms were comfy and clean.  Free breakfast was good.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r480034936-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
   </si>
   <si>
-    <t>56010</t>
-  </si>
-  <si>
-    <t>106904</t>
-  </si>
-  <si>
     <t>480034936</t>
   </si>
   <si>
@@ -177,9 +264,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded May 1, 2017</t>
   </si>
   <si>
@@ -231,9 +315,6 @@
     <t>We had a one night stay on a Friday Night. The rooms were just okay and that was the best part. The pool was advertised as heated but was freezing cold. They should shut down the gym since very little works. The lights don't work. So, be prepared to exercise in the dark. Both treadmills are broken (see attached photos). They started running large blue hoses down the hall early Saturday morning, which served as great tripping hazards as you left (see photos attached).  Forget about getting anything fixed, we were told maintenance staff was not on site.  We won't be back!MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded March 27, 2017</t>
   </si>
   <si>
@@ -243,6 +324,51 @@
     <t>We had a one night stay on a Friday Night. The rooms were just okay and that was the best part. The pool was advertised as heated but was freezing cold. They should shut down the gym since very little works. The lights don't work. So, be prepared to exercise in the dark. Both treadmills are broken (see attached photos). They started running large blue hoses down the hall early Saturday morning, which served as great tripping hazards as you left (see photos attached).  Forget about getting anything fixed, we were told maintenance staff was not on site.  We won't be back!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r449044766-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>449044766</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Outstanding! Front desk, room, housekeeping- perfect.</t>
+  </si>
+  <si>
+    <t>Front desk staff was excellent, room was good size &amp; comfortable, and even though we had a late checkout (noon), we never heard housekeeping (or anybody else for that matter). That may not seem like a big deal, but they really have to go out of their way to work the floor without slamming doors &amp; making any noise to speak of. We really appreciated it!Pro's:Large roomComfy Bed &amp; extra pillows in the closetFridge &amp; MicrowaveA/C had a constant fan feature Power charging outlet on the nightstandGreat staff!No Cons here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Front desk staff was excellent, room was good size &amp; comfortable, and even though we had a late checkout (noon), we never heard housekeeping (or anybody else for that matter). That may not seem like a big deal, but they really have to go out of their way to work the floor without slamming doors &amp; making any noise to speak of. We really appreciated it!Pro's:Large roomComfy Bed &amp; extra pillows in the closetFridge &amp; MicrowaveA/C had a constant fan feature Power charging outlet on the nightstandGreat staff!No Cons here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r440316452-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>440316452</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay</t>
+  </si>
+  <si>
+    <t>This hotel offers fine rooms and breakfast but the team that works there is off the charge. Hats off to the front desk manager she has taught her team well! They have a nice pool and will rooms with comfortable beds.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r433983398-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -258,9 +384,6 @@
     <t>Stayed here while househunting, and it is was a very convenient location to Humble, Kingwood, and IAH.  Service was great, the room was nice as well.  The breakfast was typical Fairfield fare, which I wish was better in general, but certainly in line with the Fairfield brand amenities.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r417282101-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -306,7 +429,43 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r358929933-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>358929933</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Very nice; very clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just a quick overnight to catch a plane. The room was very nice; everything was very clean; bed firm. The only issue is the air conditioner. There was a continual knocking when the air was on which made it difficult to fall and remain asleep. The shuttle service time I needed was full so I needed to leave a half hour sooner than planned. Makes me leery if the first shuttle of the morning was full. It is a frightening aspect if I could not get 3 miles down the road to catch my flight on time.  </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r348550454-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>348550454</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitely will stay again. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found the price a bit high but the room and bed were both clean and comfortable. The breakfast was busy but the staff was on their game. Pay attention as you are driving in because the driveway is hard to see and if you miss it you have a fairly large circle to make since its on a one way road. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r344609311-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
@@ -327,9 +486,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded February 4, 2016</t>
   </si>
   <si>
@@ -381,6 +537,54 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r325730630-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>325730630</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>Halls were very cold</t>
+  </si>
+  <si>
+    <t>The hotel is easily accessed and is near many restaurants and shopping.  We stayed 3 days and had only one complaint.  The hotel had all the hallways air conditioner, too cold.  Everyone we encountered shared our feelings.  Our children enjoyed the indoor pool.  It would have been nice to have a hot tub for the adults.  Nice to see adult hours for the pool.  The breakfast was great!  Finally a Marriott that serves cranberry juice at breakfast (one of our family favorites).  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded November 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is easily accessed and is near many restaurants and shopping.  We stayed 3 days and had only one complaint.  The hotel had all the hallways air conditioner, too cold.  Everyone we encountered shared our feelings.  Our children enjoyed the indoor pool.  It would have been nice to have a hot tub for the adults.  Nice to see adult hours for the pool.  The breakfast was great!  Finally a Marriott that serves cranberry juice at breakfast (one of our family favorites).  We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r325374183-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>325374183</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Very nice place to stay. Room clean and employees very helpful. Noticed some poor views, but they are not true. I only stay at Marriott hotels. This location is very good. If too expensive they need to go to a motel. I needed more towed and pillows.  The front desk got them to me in four minutes. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Very nice place to stay. Room clean and employees very helpful. Noticed some poor views, but they are not true. I only stay at Marriott hotels. This location is very good. If too expensive they need to go to a motel. I needed more towed and pillows.  The front desk got them to me in four minutes. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r318810844-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -441,15 +645,54 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded November 18, 2015</t>
-  </si>
-  <si>
-    <t>Responded November 18, 2015</t>
-  </si>
-  <si>
     <t>I found this to be on of the better Fairfield Inns where I have stayed in recent years.  The staff was friendly and helpful and the room comfortable.  Hotel has a new and fresh look, so I'm sure it was recently remodeled.  There are no restaurants within walking distance, unless you want to walk a couple of miles.  But, if you have transportation, there are several that are easy to reach.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r307285457-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>307285457</t>
+  </si>
+  <si>
+    <t>09/05/2015</t>
+  </si>
+  <si>
+    <t>Breakfast exceeded expectations, everything else was decent.</t>
+  </si>
+  <si>
+    <t>Decent stay, the place does look like as if new carpet was installed recently and the dining/lobby area looks remodeled but the rest of the place for example the room furniture is *not* new i.e. has wear. Hotel has an indoor swimming pool and rooms come with a small fridge but not microwave. The breakfast area has a microwave though. We got a room that smelled "wet" and were immediately transferred to a new room - luckily they had availability! Staff was nice. Parking is free. Breakfast was a wide variety including yogurt, make-you-own-waffles, boiled eggs, scrambled eggs, bacon, oatmeal, and fresh fruit. More than you can eat.Drawbacks: next to highway so light sleepers beware ask for room in the back.  Two queen room had one sink in the restroom. In short would stay again. 8-10mins from the Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded September 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2015</t>
+  </si>
+  <si>
+    <t>Decent stay, the place does look like as if new carpet was installed recently and the dining/lobby area looks remodeled but the rest of the place for example the room furniture is *not* new i.e. has wear. Hotel has an indoor swimming pool and rooms come with a small fridge but not microwave. The breakfast area has a microwave though. We got a room that smelled "wet" and were immediately transferred to a new room - luckily they had availability! Staff was nice. Parking is free. Breakfast was a wide variety including yogurt, make-you-own-waffles, boiled eggs, scrambled eggs, bacon, oatmeal, and fresh fruit. More than you can eat.Drawbacks: next to highway so light sleepers beware ask for room in the back.  Two queen room had one sink in the restroom. In short would stay again. 8-10mins from the Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r304769378-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>304769378</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Good stay in great location.</t>
+  </si>
+  <si>
+    <t>Stayed 13 days in August 2015 here. Good hotel in great location.Pros: Nice staff, good location, nice big TV in your room, fast washer dryer machines.Cons: only one set or laundry machines, no hot tub, water seems slow in shower.i will stay here again as it is better then most.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Stayed 13 days in August 2015 here. Good hotel in great location.Pros: Nice staff, good location, nice big TV in your room, fast washer dryer machines.Cons: only one set or laundry machines, no hot tub, water seems slow in shower.i will stay here again as it is better then most.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r302221401-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -465,15 +708,6 @@
     <t>What a present surprise this week in Humble, TX.  The photos online made me think it would be a decent but dated Fairfield, not even close.  Recently Remodeled and they hit out of of the park.  I definitely recommend for the price and quality.  I hope other Fairfields follow this remodel.MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
-    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded September 25, 2015</t>
-  </si>
-  <si>
-    <t>Responded September 25, 2015</t>
-  </si>
-  <si>
     <t>What a present surprise this week in Humble, TX.  The photos online made me think it would be a decent but dated Fairfield, not even close.  Recently Remodeled and they hit out of of the park.  I definitely recommend for the price and quality.  I hope other Fairfields follow this remodel.More</t>
   </si>
   <si>
@@ -523,6 +757,48 @@
   </si>
   <si>
     <t>I've stayed at other Fairfield's and have always had a good experience.  This one did not offer the same.  We booked this hotel because we wanted the convenience of having an indoor hot tub which it showed in the pictures to have.  When we walked into the pool room we saw a pool but no hot tub.  The lady behind the front desk informed us that they had gotten rid of the hot tub when they did work on the hotel recently and haven't posted new pictures.  Also, with all the recent work they did you would think they would put new air conditioners in the rooms because both rooms I rented had noisy air conditioners that would wake you up all night long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r279124483-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>279124483</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>I LOVED THIS PROPERTY</t>
+  </si>
+  <si>
+    <t>From the moment I walked until the time that I left the staff was undeniably wonderful and hospitable.  The room was clean and comfortable.  The staff at the front desk were absolutely accommodating.  I have no problem staying at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>From the moment I walked until the time that I left the staff was undeniably wonderful and hospitable.  The room was clean and comfortable.  The staff at the front desk were absolutely accommodating.  I have no problem staying at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r277115456-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>277115456</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Unbelievably great stay</t>
+  </si>
+  <si>
+    <t>Outstanding customer service provided by trainee Nina. Food service was great. Rooms were comfortable. Really enjoyed my stay. 1 rep was not customer friendly. Small storm came through the area. Power outage. Staff remained customer focus. Thanks for a job well done.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r240907414-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
@@ -610,6 +886,51 @@
 The room temperature was comfortable when I arrived and I turned off the A/C at night to good affect.  While I was gone during the day I set the A/C to Low Cool and about 70 degrees.  The first morning I requested no housekeeping as it wasn't needed and I was going to be in and out numerous times during the day.  However the next day I did request housekeeping.  I was very disappointed when I returned to find the...This Fairfield Inn location was centrally located for all of my activities in the Houston area the weekend of September 26-29, 2014.  That is why I preferred to stay somewhere close to Humble.  Due to its proximity to Hwy 59 I was prepared for road noise but that was quite minimal and never a problem.  Thanks to another Trip Advisor contributor I was aware that a quick right turn was required to get into the parking lot.  If you miss it just go to the first side street, make three right turns, and you will find an entrance off Fieldtree Dr. Parking was never a problem.  I parked on the east side of the building and used the side entrance most of the time.  Check-in was quick and I was accommodated when I wanted a room on the top floor.  The room was comfortable, fairly roomy and very clean.  Even the bathroom was roomier than some comparable places I've stayed.The room temperature was comfortable when I arrived and I turned off the A/C at night to good affect.  While I was gone during the day I set the A/C to Low Cool and about 70 degrees.  The first morning I requested no housekeeping as it wasn't needed and I was going to be in and out numerous times during the day.  However the next day I did request housekeeping.  I was very disappointed when I returned to find the A/C was on High Cool and all the way to the coldest setting.  The unit should not have touched in my absence.  It was set the way I wanted it and I ended up turning on the heat to get rid of the downright cold in the room.The only other disappointment was the meager breakfast buffet.  Especially the lackluster assortment of bagels and sweet rolls.  They were like some bargain basement rejects.  It made this guest feel like a second-class citizen, as if the hotel really didn't care how their food tasted.  Also, I like 1/2 &amp; 1/2 for my coffee, not the dairy substitute provided.  I used the small whole milk from the cooler but 1/2 &amp; 1/2 in a carafe would have been nice.  The one waffle maker seemed to under cook the waffles.  Everyone had trouble getting them out of the maker.  I just let it cook another minute and it was fine.  On Monday morning the staff tending the breakfast area spent the whole time I was there speaking with someone, not making sure the coffee was full.  I had warm (not hot) coffee from the bottom of the dispenser.  And I had the bottom of the waffle batter which I had to work hard to dispense.Should I ever be in the Humble area again I would definitely consider staying at this Fairfield Inn again.  Mostly it was a good stay.  I had three good night's sleep which is the major consideration when I am away from home.  There were no undue noises to contend with, a real plus!  Most of these comments were also on the Fairfield Inn survey I took after my return home.  I asked them to please consider getting their bagels/sweet rolls from a bakery instead of (I am presuming) in bulk. I think they should delight their guests not offend them with inferior products.The pluses far out weigh the minuses.  So if you are considering this Fairfield Inn don't let this review dissuade you.  I mostly wanted the management to be aware that 1) housekeeping should not alter the temperature in the room of a guest staying more than one night; and 2) more attention should be paid to the conditions in the breakfast area.  I have stayed at many Fairfields, Hamptons, Drury Inns, among others. This was a very good stay all things considered.  Improving, even marginally, the offerings at breakfast would have made this a 5 star review.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r228014944-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>228014944</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Pretty good!</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights on business. Rooms were a bit dated but very clean and well appointed. I had a nice desk to work at along with a mini fridge and coffee maker. The bed wasn't the most comfortable for a Marriott but it was quiet. There were several good places to eat and shop nearby and the hotel is right on the freeway for easy access. Overall, a pretty good stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded September 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights on business. Rooms were a bit dated but very clean and well appointed. I had a nice desk to work at along with a mini fridge and coffee maker. The bed wasn't the most comfortable for a Marriott but it was quiet. There were several good places to eat and shop nearby and the hotel is right on the freeway for easy access. Overall, a pretty good stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r219693934-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>219693934</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Easy on/off US 59 Location, great hotel</t>
+  </si>
+  <si>
+    <t>Quiet location, even though it's right on US 59.  You do have to make sure you pay attention, however, or you'll end up in the Hampton Inn parking lot next door.  (Yes, this is personal knowledge...)  Close to a lot of good restaurants, but not walking distance.  Breakfast was excellent, staff was very accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Quiet location, even though it's right on US 59.  You do have to make sure you pay attention, however, or you'll end up in the Hampton Inn parking lot next door.  (Yes, this is personal knowledge...)  Close to a lot of good restaurants, but not walking distance.  Breakfast was excellent, staff was very accommodating.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r211822539-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -683,6 +1004,60 @@
   </si>
   <si>
     <t>We stayed her for one night before a taekwondo tournament. We got a good room rate, it's easy to find and the lady on the desk was really friendly and helpful (wish I'd got her name so she could get all the credit she deserves) and check in was a breeze. The boys loved the indoor pool and hot tub which is open till 11pm (12 for adults). Room was clean n fresh smelling, very comfy beds and everything you need is there would be nice to have a little fridge to keep some water in but other than that it's a great room. Breakfast was good and always topped up and a good variety of items. Will definitely stay there again next time we're up that way and it's our 2nd time in this hotel chain and will be using these from now on as our go-to hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r184371283-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>184371283</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Location, Location, Location!</t>
+  </si>
+  <si>
+    <t>This place has an awesome location. Shopping, food, and close to the highway. It was a very comfortable stay for me. I also enjoyed the indoor pool and Jacuzzi. The rooms were clean and nice. The hotel may be a bit older but they keep it in very good condition. I was very pleased.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded November 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2013</t>
+  </si>
+  <si>
+    <t>This place has an awesome location. Shopping, food, and close to the highway. It was a very comfortable stay for me. I also enjoyed the indoor pool and Jacuzzi. The rooms were clean and nice. The hotel may be a bit older but they keep it in very good condition. I was very pleased.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r178145640-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>178145640</t>
+  </si>
+  <si>
+    <t>09/22/2013</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>There are no negatives for this hotel.  The room was clean and comfortable and had a mini fridge.  The decor of both the room and the hotel were generic.  The positives are value and location.  Nearby are a wide variety of restaurants and retail stores but not close enough to walk.  The quality of the complimentary breakfast was above average.  Other positives were reservation handling - I arrived at midnight and had no issue with having a room, and I had a package delivered two days before my arrival and it was held and ready upon my arrival.  I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded September 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2013</t>
+  </si>
+  <si>
+    <t>There are no negatives for this hotel.  The room was clean and comfortable and had a mini fridge.  The decor of both the room and the hotel were generic.  The positives are value and location.  Nearby are a wide variety of restaurants and retail stores but not close enough to walk.  The quality of the complimentary breakfast was above average.  Other positives were reservation handling - I arrived at midnight and had no issue with having a room, and I had a package delivered two days before my arrival and it was held and ready upon my arrival.  I will stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r173430635-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
@@ -770,6 +1145,57 @@
     <t>You do hear the noise from the nearby freeway but its not overly noisy.Comfy enough beds, you need to request a fridge though.  Bathroom pretty standard.  Choice f channels on the tv is poor.Breakfast is average, you do have a choice of hot or cold, either bacon and scrambled eggs or some kind of sausage and scrambled eggs.  I normally had toast and cereal, so i guess its not all bad.There is a pool, never seen anyone in it, didn't see changing rooms either which means walking about dripping wet.You are right next to Deerbrook Mall and across the freeway from some good restaurants though.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r164961487-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>164961487</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Decent Stay, Great Location, Nice Employees</t>
+  </si>
+  <si>
+    <t>When I first walked into the lobby I was a bit worried by dated décor, etc. but once I saw the room I didn't have any worries.  It was pleasant and nice.  Comfy bed.  Good breakfast.  Nice employees at front desk and they were helpful.  Great location...everything (and I mean) everything at your fingertips...mall, restaurants, shopping, target, fast food, gas, etc.The three star is for water pipes (constant pounding sound when on), thin walls (didn't know when someone knocking on my door or my neighbors), and curtains (no black out...sun comes blaring in, and air conditioner (loud and hot/cold and doesn't come on when it should it must have a "sleep" zone or something.I would however stay here again IF I had to get up early.  If I was trying to sleep in NO WAY.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>HumbleFairfield_GM, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded June 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2013</t>
+  </si>
+  <si>
+    <t>When I first walked into the lobby I was a bit worried by dated décor, etc. but once I saw the room I didn't have any worries.  It was pleasant and nice.  Comfy bed.  Good breakfast.  Nice employees at front desk and they were helpful.  Great location...everything (and I mean) everything at your fingertips...mall, restaurants, shopping, target, fast food, gas, etc.The three star is for water pipes (constant pounding sound when on), thin walls (didn't know when someone knocking on my door or my neighbors), and curtains (no black out...sun comes blaring in, and air conditioner (loud and hot/cold and doesn't come on when it should it must have a "sleep" zone or something.I would however stay here again IF I had to get up early.  If I was trying to sleep in NO WAY.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r159813202-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>159813202</t>
+  </si>
+  <si>
+    <t>05/06/2013</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable</t>
+  </si>
+  <si>
+    <t>The room was clean and the beds were comfortable. The room did not smell musty like some hotel rooms. We arrived very late and  the staff was very nice. The towels were soft and there was plenty of hot water. We will chose Fairfield Inn again!MoreShow less</t>
+  </si>
+  <si>
+    <t>HumbleFairfield_GM, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded May 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2013</t>
+  </si>
+  <si>
+    <t>The room was clean and the beds were comfortable. The room did not smell musty like some hotel rooms. We arrived very late and  the staff was very nice. The towels were soft and there was plenty of hot water. We will chose Fairfield Inn again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r159480161-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -833,6 +1259,60 @@
     <t>We arrived at noon asked to check in early. The staff was happy to help. We got into our room and it was very clean. The bed was soft, the bathroom was clean and lots of clean towels. There was a love seat made into a bed, the desk and chair were great for work. The pool was very clean and heated. There was LOTS of clean towels on every chair plus extra on a shelf. My son had hit his head on the handicap lift for the pool. I didn't want him to bleed in the pool so we went to the room to clean him up. I asked the front desk for something to treat it and the did all they can to help. The breakfast was amazing, my son loved the bacon. He stuffed his face with cereal and bacon. The food was hot fresh and coffee was changed regularly. Everyone was helpful and always smiled.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r157463695-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>157463695</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Helpful Front Desk Staff</t>
+  </si>
+  <si>
+    <t>Several hours before my planned arrival I realized I'd messed up my reservation. Hotels in area were full, &amp; and I was having trouble finding another room.  Called the hotel, and really appreciate that the front desk person (didn't get his name) fixed things for me &amp; got me a room for my 3-day trip.  Like staying here because of lots of nearby restaurants. It's right next to a mall, too, but I've never been there.  Have stayed here several times, &amp; have never had a bad experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>HumbleFairfield_GM, Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded April 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2013</t>
+  </si>
+  <si>
+    <t>Several hours before my planned arrival I realized I'd messed up my reservation. Hotels in area were full, &amp; and I was having trouble finding another room.  Called the hotel, and really appreciate that the front desk person (didn't get his name) fixed things for me &amp; got me a room for my 3-day trip.  Like staying here because of lots of nearby restaurants. It's right next to a mall, too, but I've never been there.  Have stayed here several times, &amp; have never had a bad experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r151629019-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>151629019</t>
+  </si>
+  <si>
+    <t>02/07/2013</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>The hotel staff was very friendly and helpful.  Even though our stay was short, the location was central to the airport, mall and eateries.  The rooms are great, the free breakfast was a welcome surprise and they accommodated our early arrival (which was extremely appreciated)!  Our only complaint would be the bedding.  The sheets were stiff and uncomfortable.  Not sure if it was the thread count or too much bleach when laundering.  In summary, the stay was great:-)MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>HumbleFairfield_GM, General Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded March 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2013</t>
+  </si>
+  <si>
+    <t>The hotel staff was very friendly and helpful.  Even though our stay was short, the location was central to the airport, mall and eateries.  The rooms are great, the free breakfast was a welcome surprise and they accommodated our early arrival (which was extremely appreciated)!  Our only complaint would be the bedding.  The sheets were stiff and uncomfortable.  Not sure if it was the thread count or too much bleach when laundering.  In summary, the stay was great:-)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r151533499-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -848,15 +1328,6 @@
     <t>I've stayed at this location on several occasions and will continue to make this my number one choice in the Humble location.  The front desk employee was (and always) very friendly and helpful.  She was very polite and went out of her way to make my daughter and I feel welcome.  The hotel room itself was clean and tidy.  Every room I've stayed in at this hotel had a mini-fridge and a desk perfect for crafting and jigsaw puzzles.  The bed was comfortable, and we didn't hear a lot of commotion from other guests.  I did mention that the locale is great.  It's really a gift and a curse to the area.  There is literally everything near this hotel:  a mall, movie theater, grocery stores, all the popular retail stores, an incredible selection of restaurants and fast-food.  The list goes on and on.  The bad news about it is that the traffic around this area close to the hotel is so very congested.  Again, you have to take the bad with the good of being close to so many options.  Despite the traffic/hassle it doesn't stop me from wanting to go back to this hotel.MoreShow less</t>
   </si>
   <si>
-    <t>February 2013</t>
-  </si>
-  <si>
-    <t>HumbleFairfield_GM, General Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded March 13, 2013</t>
-  </si>
-  <si>
-    <t>Responded March 13, 2013</t>
-  </si>
-  <si>
     <t>I've stayed at this location on several occasions and will continue to make this my number one choice in the Humble location.  The front desk employee was (and always) very friendly and helpful.  She was very polite and went out of her way to make my daughter and I feel welcome.  The hotel room itself was clean and tidy.  Every room I've stayed in at this hotel had a mini-fridge and a desk perfect for crafting and jigsaw puzzles.  The bed was comfortable, and we didn't hear a lot of commotion from other guests.  I did mention that the locale is great.  It's really a gift and a curse to the area.  There is literally everything near this hotel:  a mall, movie theater, grocery stores, all the popular retail stores, an incredible selection of restaurants and fast-food.  The list goes on and on.  The bad news about it is that the traffic around this area close to the hotel is so very congested.  Again, you have to take the bad with the good of being close to so many options.  Despite the traffic/hassle it doesn't stop me from wanting to go back to this hotel.More</t>
   </si>
   <si>
@@ -899,9 +1370,6 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>HumbleFairfield_GM, General Manager at Fairfield Inn &amp; Suites Houston Humble, responded to this reviewResponded November 12, 2012</t>
   </si>
   <si>
@@ -911,6 +1379,42 @@
     <t>We stayed here one night, just a quick getaway.  This is a remodeled hotel, not new.  It was clean and updated.  We mistakenly thought that there were refrigerators and microwaves in the rooms, there were not.  We enjoyed the indoor pool and the breakfast was plentiful and tasty.  The front desk clerk was very friendly and made us feel welcome.  I would stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r131198301-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>131198301</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>We stayed at this Fairfield Inn for the last couple of days.  We were traveling for Business/Pleasure in this part of Houston.  Front desk staff was great.  The Staff was responsive and very nice.  Room was very clean and breakfast was well maintained and food was fresh.  We would stay again.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r126453549-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>126453549</t>
+  </si>
+  <si>
+    <t>03/21/2012</t>
+  </si>
+  <si>
+    <t>Good stay, close to IAH</t>
+  </si>
+  <si>
+    <t>Good hotel, great front desk. A bit long check-in however at midnight.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r119220585-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -959,6 +1463,42 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r37085926-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>37085926</t>
+  </si>
+  <si>
+    <t>08/08/2009</t>
+  </si>
+  <si>
+    <t>Service par excellance</t>
+  </si>
+  <si>
+    <t>When we arrived we were greeted by our first Texan, what a greeting. When we were checking in we were informaed that complimentary snacks would be avaialble shortly. We thought it would be the usual type of things, peanuts, chips and the like. Well it wasn't it was proper club sandwiches with fresh fruit, drinks and muffins. Outstanding.The breakfast in the morning was of the same calibre.When we were checking out we had a problem with our car (flat battery) two members of staff came out and helped us with a jump start. Not many places would have been as helpful.Overall a great start to our vacation.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r28558019-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>28558019</t>
+  </si>
+  <si>
+    <t>04/22/2009</t>
+  </si>
+  <si>
+    <t>Relaxing Business Address outside of town</t>
+  </si>
+  <si>
+    <t>I have to work in Houston, but also cover Southeast Texas and Southwest Louisiana. Humble's wonderfully located to get into town, or head north or east to other locations &amp; get back in a day. This hotel is very quiet, very customer-focused. No, you don't have a laundry on the premise but there is one next door. Explore the quiet friendly restaurants of Humble old town and even along FM 1960, you'll be pleasantly surprised. Commute? I've left this hotel at 8am, gotten clear to my store on the other side of Houston along US59 in one hour; 730am departure, Galveston by 830.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r23541763-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1551,18 @@
   </si>
   <si>
     <t>January 2003</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d106904-r2851095-Fairfield_Inn_Suites_Houston_Humble-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>2851095</t>
+  </si>
+  <si>
+    <t>11/27/2004</t>
+  </si>
+  <si>
+    <t>I am a female travelling alone on business and had the pleasure of staying recently at the Fairfield Inn Humble in Houston, Texas. I highly recommend this hotel. The staff were lovely and the room was comfortable, luxurious and clean. High speed internet access and peaceful surrounding area. Unfortunately there is no real means of transport apart from taxi, but there is a large mall around 10 minutes away by foot. The Hotel has an excellent pool, and breakfast was welcoming. The overall happy feel of the hotel comes through and makes you feel totally safe and at ease. Very well run and maintained. Recommended!</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +2097,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1555,14 +2107,10 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1610,13 +2158,13 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1628,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1650,7 +2198,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1659,43 +2207,49 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1711,7 +2265,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1720,43 +2274,47 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1772,7 +2330,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1781,47 +2339,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -1837,7 +2391,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1846,43 +2400,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -1898,7 +2452,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1907,49 +2461,47 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -1965,7 +2517,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1974,47 +2526,35 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>112</v>
-      </c>
-      <c r="X9" t="s">
-        <v>113</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -2030,7 +2570,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2039,39 +2579,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -2087,7 +2631,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2096,43 +2640,47 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -2148,7 +2696,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2157,43 +2705,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
         <v>53</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>127</v>
-      </c>
-      <c r="X12" t="s">
-        <v>128</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -2209,7 +2757,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2218,25 +2766,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2247,14 +2795,10 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
         <v>141</v>
-      </c>
-      <c r="X13" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14">
@@ -2291,13 +2835,13 @@
         <v>148</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
         <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2308,14 +2852,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>150</v>
-      </c>
-      <c r="X14" t="s">
-        <v>151</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -2331,58 +2871,58 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
         <v>153</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>154</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
         <v>155</v>
       </c>
-      <c r="K15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" t="s">
-        <v>157</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>126</v>
-      </c>
       <c r="O15" t="s">
-        <v>96</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
+        <v>143</v>
+      </c>
+      <c r="P15" t="n">
         <v>3</v>
       </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
         <v>3</v>
       </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s">
         <v>158</v>
-      </c>
-      <c r="X15" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16">
@@ -2398,58 +2938,56 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
         <v>161</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>162</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>163</v>
       </c>
-      <c r="K16" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" t="s">
-        <v>165</v>
-      </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>164</v>
+      </c>
+      <c r="X16" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s">
         <v>166</v>
-      </c>
-      <c r="X16" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17">
@@ -2465,58 +3003,48 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
         <v>169</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>170</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>171</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>172</v>
       </c>
-      <c r="L17" t="s">
-        <v>173</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>174</v>
-      </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>175</v>
-      </c>
-      <c r="X17" t="s">
-        <v>176</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -2532,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2541,49 +3069,39 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
-      <c r="N18" t="s">
-        <v>183</v>
-      </c>
-      <c r="O18" t="s">
-        <v>96</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -2599,7 +3117,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2608,49 +3126,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>192</v>
-      </c>
-      <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="X19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
@@ -2666,7 +3174,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2675,53 +3183,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
       </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -2737,7 +3235,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2746,53 +3244,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
@@ -2808,7 +3296,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2817,49 +3305,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
@@ -2875,7 +3357,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2884,53 +3366,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>96</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="n">
         <v>3</v>
       </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
@@ -2946,7 +3422,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2955,35 +3431,31 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
-        <v>96</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
         <v>4</v>
       </c>
@@ -2995,13 +3467,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="X24" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="Y24" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
@@ -3017,7 +3489,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3026,53 +3498,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="J25" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="K25" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>96</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="X25" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="Y25" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
@@ -3088,7 +3550,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3097,53 +3559,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
       </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="X26" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
@@ -3159,7 +3617,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3168,32 +3626,28 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
         <v>4</v>
       </c>
@@ -3208,13 +3662,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="Y27" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
@@ -3230,7 +3684,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3239,38 +3693,32 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
         <v>5</v>
       </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3279,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
+        <v>253</v>
+      </c>
+      <c r="X28" t="s">
         <v>254</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>255</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -3301,7 +3749,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3310,22 +3758,22 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="J29" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="K29" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="O29" t="s">
         <v>53</v>
@@ -3333,15 +3781,9 @@
       <c r="P29" t="n">
         <v>4</v>
       </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3349,14 +3791,10 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>275</v>
-      </c>
-      <c r="X29" t="s">
-        <v>276</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
@@ -3372,7 +3810,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3381,38 +3819,34 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="O30" t="s">
-        <v>96</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3421,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="X30" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Y30" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31">
@@ -3443,7 +3877,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3452,38 +3886,34 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="J31" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="O31" t="s">
-        <v>291</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
         <v>4</v>
       </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3492,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="Y31" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32">
@@ -3514,7 +3944,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3523,45 +3953,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="J32" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="K32" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>284</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
       <c r="P32" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>2</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>285</v>
+      </c>
+      <c r="X32" t="s">
+        <v>286</v>
+      </c>
       <c r="Y32" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33">
@@ -3577,7 +4011,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3586,31 +4020,31 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="J33" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="K33" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+      <c r="N33" t="s">
+        <v>284</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
       <c r="P33" t="n">
         <v>5</v>
       </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
         <v>4</v>
       </c>
@@ -3621,10 +4055,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>293</v>
+      </c>
+      <c r="X33" t="s">
+        <v>294</v>
+      </c>
       <c r="Y33" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34">
@@ -3640,7 +4078,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3649,49 +4087,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J34" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K34" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="O34" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>293</v>
+      </c>
+      <c r="X34" t="s">
+        <v>294</v>
+      </c>
       <c r="Y34" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
@@ -3707,7 +4145,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3716,28 +4154,28 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="J35" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="K35" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="O35" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
         <v>5</v>
@@ -3750,15 +4188,19 @@
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>309</v>
+      </c>
+      <c r="X35" t="s">
+        <v>310</v>
+      </c>
       <c r="Y35" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36">
@@ -3774,7 +4216,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3783,49 +4225,53 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
         <v>4</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>317</v>
+      </c>
+      <c r="X36" t="s">
+        <v>318</v>
+      </c>
       <c r="Y36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37">
@@ -3841,46 +4287,42 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>321</v>
+      </c>
+      <c r="J37" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" t="s">
         <v>323</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>324</v>
       </c>
-      <c r="J37" t="s">
-        <v>325</v>
-      </c>
-      <c r="K37" t="s">
-        <v>326</v>
-      </c>
-      <c r="L37" t="s">
-        <v>327</v>
-      </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
-      <c r="N37" t="s">
-        <v>328</v>
-      </c>
-      <c r="O37" t="s">
-        <v>53</v>
-      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
       <c r="P37" t="n">
         <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -3889,10 +4331,1780 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>325</v>
+      </c>
+      <c r="X37" t="s">
+        <v>326</v>
+      </c>
       <c r="Y37" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>328</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J38" t="s">
+        <v>330</v>
+      </c>
+      <c r="K38" t="s">
+        <v>331</v>
+      </c>
+      <c r="L38" t="s">
+        <v>332</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>333</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>334</v>
+      </c>
+      <c r="X38" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>337</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J39" t="s">
+        <v>339</v>
+      </c>
+      <c r="K39" t="s">
+        <v>340</v>
+      </c>
+      <c r="L39" t="s">
+        <v>341</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>342</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>343</v>
+      </c>
+      <c r="X39" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>347</v>
+      </c>
+      <c r="J40" t="s">
+        <v>348</v>
+      </c>
+      <c r="K40" t="s">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s">
+        <v>350</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>351</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>352</v>
+      </c>
+      <c r="X40" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>355</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" t="s">
+        <v>357</v>
+      </c>
+      <c r="K41" t="s">
+        <v>358</v>
+      </c>
+      <c r="L41" t="s">
+        <v>359</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>360</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>361</v>
+      </c>
+      <c r="X41" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>364</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>365</v>
+      </c>
+      <c r="J42" t="s">
+        <v>366</v>
+      </c>
+      <c r="K42" t="s">
+        <v>367</v>
+      </c>
+      <c r="L42" t="s">
+        <v>368</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>369</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>370</v>
+      </c>
+      <c r="X42" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>373</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>374</v>
+      </c>
+      <c r="J43" t="s">
+        <v>375</v>
+      </c>
+      <c r="K43" t="s">
+        <v>376</v>
+      </c>
+      <c r="L43" t="s">
+        <v>377</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>369</v>
+      </c>
+      <c r="O43" t="s">
+        <v>378</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>379</v>
+      </c>
+      <c r="X43" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>382</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>383</v>
+      </c>
+      <c r="J44" t="s">
+        <v>384</v>
+      </c>
+      <c r="K44" t="s">
+        <v>385</v>
+      </c>
+      <c r="L44" t="s">
+        <v>386</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>387</v>
+      </c>
+      <c r="X44" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>390</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J45" t="s">
+        <v>392</v>
+      </c>
+      <c r="K45" t="s">
+        <v>393</v>
+      </c>
+      <c r="L45" t="s">
+        <v>394</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>395</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>396</v>
+      </c>
+      <c r="X45" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>399</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>400</v>
+      </c>
+      <c r="J46" t="s">
+        <v>401</v>
+      </c>
+      <c r="K46" t="s">
+        <v>402</v>
+      </c>
+      <c r="L46" t="s">
+        <v>403</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>395</v>
+      </c>
+      <c r="O46" t="s">
+        <v>108</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>396</v>
+      </c>
+      <c r="X46" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>406</v>
+      </c>
+      <c r="J47" t="s">
+        <v>407</v>
+      </c>
+      <c r="K47" t="s">
+        <v>408</v>
+      </c>
+      <c r="L47" t="s">
+        <v>409</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>395</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>396</v>
+      </c>
+      <c r="X47" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>411</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>412</v>
+      </c>
+      <c r="J48" t="s">
+        <v>413</v>
+      </c>
+      <c r="K48" t="s">
+        <v>414</v>
+      </c>
+      <c r="L48" t="s">
+        <v>415</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>416</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>417</v>
+      </c>
+      <c r="X48" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>420</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>421</v>
+      </c>
+      <c r="J49" t="s">
+        <v>422</v>
+      </c>
+      <c r="K49" t="s">
+        <v>423</v>
+      </c>
+      <c r="L49" t="s">
+        <v>424</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>425</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>426</v>
+      </c>
+      <c r="X49" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>429</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>430</v>
+      </c>
+      <c r="J50" t="s">
+        <v>431</v>
+      </c>
+      <c r="K50" t="s">
+        <v>432</v>
+      </c>
+      <c r="L50" t="s">
+        <v>433</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>425</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>426</v>
+      </c>
+      <c r="X50" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>435</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>436</v>
+      </c>
+      <c r="J51" t="s">
+        <v>437</v>
+      </c>
+      <c r="K51" t="s">
+        <v>438</v>
+      </c>
+      <c r="L51" t="s">
+        <v>439</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>440</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>426</v>
+      </c>
+      <c r="X51" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>442</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>443</v>
+      </c>
+      <c r="J52" t="s">
+        <v>444</v>
+      </c>
+      <c r="K52" t="s">
+        <v>445</v>
+      </c>
+      <c r="L52" t="s">
+        <v>446</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>447</v>
+      </c>
+      <c r="O52" t="s">
+        <v>378</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>448</v>
+      </c>
+      <c r="X52" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>451</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>452</v>
+      </c>
+      <c r="J53" t="s">
+        <v>453</v>
+      </c>
+      <c r="K53" t="s">
+        <v>454</v>
+      </c>
+      <c r="L53" t="s">
+        <v>455</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>456</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>457</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>458</v>
+      </c>
+      <c r="J54" t="s">
+        <v>459</v>
+      </c>
+      <c r="K54" t="s">
+        <v>460</v>
+      </c>
+      <c r="L54" t="s">
+        <v>461</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>462</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>463</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>464</v>
+      </c>
+      <c r="J55" t="s">
+        <v>465</v>
+      </c>
+      <c r="K55" t="s">
+        <v>466</v>
+      </c>
+      <c r="L55" t="s">
+        <v>467</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>468</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>469</v>
+      </c>
+      <c r="J56" t="s">
+        <v>470</v>
+      </c>
+      <c r="K56" t="s">
+        <v>471</v>
+      </c>
+      <c r="L56" t="s">
+        <v>472</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>473</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>474</v>
+      </c>
+      <c r="J57" t="s">
+        <v>475</v>
+      </c>
+      <c r="K57" t="s">
+        <v>476</v>
+      </c>
+      <c r="L57" t="s">
+        <v>477</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>478</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>479</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>480</v>
+      </c>
+      <c r="J58" t="s">
+        <v>481</v>
+      </c>
+      <c r="K58" t="s">
+        <v>482</v>
+      </c>
+      <c r="L58" t="s">
+        <v>483</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>484</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>485</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>486</v>
+      </c>
+      <c r="J59" t="s">
+        <v>487</v>
+      </c>
+      <c r="K59" t="s">
+        <v>488</v>
+      </c>
+      <c r="L59" t="s">
+        <v>489</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>490</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>491</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>492</v>
+      </c>
+      <c r="J60" t="s">
+        <v>493</v>
+      </c>
+      <c r="K60" t="s">
+        <v>494</v>
+      </c>
+      <c r="L60" t="s">
+        <v>495</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>496</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>497</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>498</v>
+      </c>
+      <c r="J61" t="s">
+        <v>499</v>
+      </c>
+      <c r="K61" t="s">
+        <v>500</v>
+      </c>
+      <c r="L61" t="s">
+        <v>501</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>502</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>503</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>504</v>
+      </c>
+      <c r="J62" t="s">
+        <v>505</v>
+      </c>
+      <c r="K62" t="s">
+        <v>506</v>
+      </c>
+      <c r="L62" t="s">
+        <v>507</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>508</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35399</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>509</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>510</v>
+      </c>
+      <c r="J63" t="s">
+        <v>511</v>
+      </c>
+      <c r="K63" t="s">
+        <v>506</v>
+      </c>
+      <c r="L63" t="s">
+        <v>512</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
